--- a/medicine/Enfance/Gianni_Rodari/Gianni_Rodari.xlsx
+++ b/medicine/Enfance/Gianni_Rodari/Gianni_Rodari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gianni Rodari, né le 23 octobre 1920 à Omegna et mort le 14 avril 1980 à Rome, est un poète, écrivain et journaliste italien. La littérature jeunesse est la partie la plus connue de son œuvre. Il a reçu le prestigieux prix Hans Christian Andersen, catégorie Écriture, en 1970.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rodari naît le 23 octobre 1920 à Omegna, une petite ville du nord de l'Italie, dans le Piémont. Son père, boulanger, meurt alors que G. Rodari n'a que 9 ans. Lui et ses deux frères, Cesare et Mario, sont élevés par leur mère dans leur village natal, Gavirate, dans la province de Varèse.
 Après un séminaire de trois ans à Seveso, il reçoit en 1937 son diplôme d'enseignant à l'âge de 17 ans. Il enseigne alors dans des classes élémentaires du district de Varesotto. Il s'intéresse à la musique, en suivant trois ans de cours de violon, ainsi qu'à la littérature. Il découvre ainsi les ouvrages de Nietzsche, Schopenhauer, Marx, Engels, Lénine, Trotsky et Staline qui affûtent son sens critique[réf. souhaitée]. En 1939, pendant une courte période, il fréquente l'université de Milan.
 Durant la Seconde Guerre mondiale, Rodari est exempté de l'armée pour raisons de santé. Il rejoint le parti fasciste pendant quelque temps, pour obtenir un travail, la carte du parti fasciste étant obligatoire pour tous les fonctionnaires. Traumatisé par la perte de ses deux meilleurs amis et l'incarcération de son frère Cesare dans un camp de concentration, Rodari rejoint le parti communiste italien en 1944 et participe alors au mouvement de résistance italien. Rodari aurait en fait rejoint les communistes et la résistance dès les années 1940, son appartenance au parti fasciste étant une couverture obligatoire pour ses réelles activités politiques.
 En 1948, en tant que journaliste du périodique communiste L'Unità, il commence l'écriture de livres pour enfants. En 1950 le Parti lui confie un poste de rédacteur pour le nouvel hebdomadaire pour enfants Il Pioniere. En 1951, il publie ses premiers livres: Il Libro delle Filastrocche et Il Romanzo di Cipollino.
 Il se rend pour la première fois en URSS en 1952. Il se marie l'année suivante avec Maria Teresa Feretti avec qui il a, quatre ans plus tard, une fille nommée Paola. En 1957, Rodari passe l'examen de journaliste professionnel.
-De 1966 à 1969, Rodari participe activement a des projets collaboratifs avec des enfants. En 1970, lui est décerné le Prix Hans Christian Andersen catégorie Écriture, récompensant les auteurs de littérature jeunesse[1]. Cette décoration lui permet d'obtenir une réputation internationale. Ses ouvrages ont depuis été traduits dans de nombreuses langues.
-En 1973, il obtient le Premio Grafico Fiera di Bologna per l'Infanzia, de la Foire du livre de jeunesse de Bologne[2] (Italie).
+De 1966 à 1969, Rodari participe activement a des projets collaboratifs avec des enfants. En 1970, lui est décerné le Prix Hans Christian Andersen catégorie Écriture, récompensant les auteurs de littérature jeunesse. Cette décoration lui permet d'obtenir une réputation internationale. Ses ouvrages ont depuis été traduits dans de nombreuses langues.
+En 1973, il obtient le Premio Grafico Fiera di Bologna per l'Infanzia, de la Foire du livre de jeunesse de Bologne (Italie).
 En 1979, après un voyage en URSS, sa santé décline et l'empêche de travailler comme avant. Il meurt lors d'une opération chirurgicale le 14 avril 1980 à Rome, à l'âge de 59 ans.
 </t>
         </is>
@@ -549,7 +563,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1950 - Il libro delle filastrocche
 1951 - Il manuale del Pionere
@@ -566,7 +582,7 @@
 Nouvelles extraites du recueil publiées en albums jeunesses :
 Un et sept (Uno e sette), ill. Beatrice Alemagna, Seuil jeunesse, 2001
 Quel cafouillage ! (A sbagliare le storie), ill Alessandro Sanna, Kaléïdoscope, 2005
-Promenade d'un distrait[3], (La passeggiata di un distratto) (traduit et adapté de l'italien par Beatrice Alemagna), ill. Beatrice Alemagna, Seuil jeunesse, 2005 - accompagné d'un DVD avec le film d'animation, réalisé par Beatrice Alemagna et Giuseppe Bianchi, durée 6 min 35 s.
+Promenade d'un distrait, (La passeggiata di un distratto) (traduit et adapté de l'italien par Beatrice Alemagna), ill. Beatrice Alemagna, Seuil jeunesse, 2005 - accompagné d'un DVD avec le film d'animation, réalisé par Beatrice Alemagna et Giuseppe Bianchi, durée 6 min 35 s.
 Et si on inventait des nombres ? (A inventare i numeri), ill. Alessandro Sanna, Kaléïdoscope, 2007
 La couverture du papa soldat (La coperta del soldato), ill. Judith Gueyfier, Rue du Monde, 2010
 Le chemin qui ne mène nulle part (La strada che non andava in nessun posto), ill. Fulvio Testa, Seuil jeunesse, 2011
@@ -626,12 +642,46 @@
 ??
 Alice Laculbute, La Joie de lire, 2002
 ??
-Marco et Mirko, La Joie de lire, 2002
-Quelques rééditions en albums jeunesse
-Scoop !, ill. Pef, Rue du monde, 1999 Album jeunesse de la nouvelle Il benefattore incompreso, extraite du recueil Il cane di Magonza.
+Marco et Mirko, La Joie de lire, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gianni_Rodari</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gianni_Rodari</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Quelques rééditions en albums jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Scoop !, ill. Pef, Rue du monde, 1999 Album jeunesse de la nouvelle Il benefattore incompreso, extraite du recueil Il cane di Magonza.
 Un et sept, ill. Beatrice Alemagna, Seuil jeunesse, 2001 Album jeunesse de la nouvelle Uno e sette, extraite du recueil Histoires au téléphone.
 Quel cafouillage !, ill Alessandro Sanna, Kaléïdoscope, 2005 Album jeunesse de la nouvelle A sbagliare le storie, extraite du recueil Histoires au téléphone.
-Promenade d'un distrait[3], (traduit et adapté de l'italien par Beatrice Alemagna), ill. Beatrice Alemagna, Seuil jeunesse, 2005 - accompagné d'un DVD avec le film d'animation, réalisé par Beatrice Alemagna et Giuseppe Bianchi, durée 6 min 35 s. Album jeunesse de la nouvelle La passeggiata di un distratto, extraite du recueil Histoires au téléphone[3].
+Promenade d'un distrait, (traduit et adapté de l'italien par Beatrice Alemagna), ill. Beatrice Alemagna, Seuil jeunesse, 2005 - accompagné d'un DVD avec le film d'animation, réalisé par Beatrice Alemagna et Giuseppe Bianchi, durée 6 min 35 s. Album jeunesse de la nouvelle La passeggiata di un distratto, extraite du recueil Histoires au téléphone.
 La guerre des cloches (La guerra delle campane), ill. Pef, Kaléïdoscope, 2006
 Et si on inventait des nombres ?, ill. Alessandro Sanna, Kaléïdoscope, 2007 Album jeunesse de la nouvelle A inventare i numeri, extraite du recueil Histoires au téléphone.
 Il faut une fleur ( Che cosa ci vuole), ill. Silvia Bonanni, 2007
@@ -645,40 +695,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gianni_Rodari</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gianni_Rodari</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Prix et distinctions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1964 : (international) « Honor List »[4], de l' IBBY, pour Jip dans le téléviseur
-1966 : (international) « Hightly Commended Authors »[4], par l' IBBY, pour l'ensemble de son œuvre
-1968 : (international) « Hightly Commended Authors »[4], par l' IBBY, pour l'ensemble de son œuvre
-1970 : Prix Hans Christian Andersen catégorie Écriture
-1973 : Premio Grafico Fiera di Bologna per l'Infanzia, de la Foire du livre de jeunesse de Bologne (Italie).</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -700,10 +716,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1964 : (international) « Honor List », de l' IBBY, pour Jip dans le téléviseur
+1966 : (international) « Hightly Commended Authors », par l' IBBY, pour l'ensemble de son œuvre
+1968 : (international) « Hightly Commended Authors », par l' IBBY, pour l'ensemble de son œuvre
+1970 : Prix Hans Christian Andersen catégorie Écriture
+1973 : Premio Grafico Fiera di Bologna per l'Infanzia, de la Foire du livre de jeunesse de Bologne (Italie).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gianni_Rodari</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gianni_Rodari</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(2703) Rodari, astéroïde.</t>
         </is>
